--- a/result/tables_200213.xlsx
+++ b/result/tables_200213.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="94">
   <si>
     <t>TypeName.1</t>
   </si>
@@ -317,10 +317,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -381,10 +381,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52:P53"/>
+    <sheetView tabSelected="1" topLeftCell="S16" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C21">
         <f>SUM(C2:C20)</f>
         <v>36498.972815230001</v>
@@ -2337,12 +2337,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2379,9 +2379,38 @@
       <c r="M24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" t="s">
+        <v>23</v>
+      </c>
+      <c r="W24" t="s">
+        <v>24</v>
+      </c>
+      <c r="X24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2421,17 +2450,60 @@
       <c r="M25">
         <v>448</v>
       </c>
-      <c r="N25">
-        <f>SUM(D25:M25)</f>
-        <v>5554</v>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="P25" s="5">
-        <f>N26/N25</f>
-        <v>2.700756211739287E-3</v>
-      </c>
-      <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <f>D26/D25</f>
+        <v>5.9347181008902079E-3</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" ref="P25:V25" si="11">E26/E25</f>
+        <v>3.1446540880503146E-3</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="11"/>
+        <v>1.7857142857142857E-3</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="11"/>
+        <v>3.3840947546531302E-3</v>
+      </c>
+      <c r="W25" s="5">
+        <f>K26/K25</f>
+        <v>5.9760956175298804E-3</v>
+      </c>
+      <c r="X25" s="5">
+        <f t="shared" ref="X25:Y25" si="12">L26/L25</f>
+        <v>2.1231422505307855E-3</v>
+      </c>
+      <c r="Y25" s="5">
+        <f t="shared" si="12"/>
+        <v>4.464285714285714E-3</v>
+      </c>
+      <c r="Z25" s="5">
+        <f>AVERAGE(P25:Y25)</f>
+        <v>2.6812704811654321E-3</v>
+      </c>
+      <c r="AA25" s="5">
+        <f>Z25/(0.1*0.1*PI())</f>
+        <v>8.5347490168772633E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2471,14 +2543,13 @@
       <c r="M26">
         <v>2</v>
       </c>
-      <c r="N26">
-        <f>SUM(D26:M26)</f>
-        <v>15</v>
+      <c r="O26" t="s">
+        <v>50</v>
       </c>
       <c r="P26" s="5"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2518,17 +2589,59 @@
       <c r="M27">
         <v>491</v>
       </c>
-      <c r="N27">
-        <f>SUM(D27:M27)</f>
-        <v>4623</v>
+      <c r="O27" t="s">
+        <v>37</v>
       </c>
       <c r="P27" s="5">
-        <f>N28/N27</f>
-        <v>8.6523902227990477E-3</v>
-      </c>
-      <c r="S27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+        <f>D28/D27</f>
+        <v>9.3676814988290398E-3</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" ref="Q27" si="13">E28/E27</f>
+        <v>1.0050251256281407E-2</v>
+      </c>
+      <c r="R27" s="5">
+        <f t="shared" ref="R27" si="14">F28/F27</f>
+        <v>8.4925690021231421E-3</v>
+      </c>
+      <c r="S27" s="5">
+        <f t="shared" ref="S27" si="15">G28/G27</f>
+        <v>6.8181818181818179E-3</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" ref="T27" si="16">H28/H27</f>
+        <v>2.1141649048625794E-3</v>
+      </c>
+      <c r="U27" s="5">
+        <f t="shared" ref="U27" si="17">I28/I27</f>
+        <v>4.7169811320754715E-3</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" ref="V27" si="18">J28/J27</f>
+        <v>9.7847358121330719E-3</v>
+      </c>
+      <c r="W27" s="5">
+        <f>K28/K27</f>
+        <v>7.9522862823061622E-3</v>
+      </c>
+      <c r="X27" s="5">
+        <f t="shared" ref="X27" si="19">L28/L27</f>
+        <v>1.0309278350515464E-2</v>
+      </c>
+      <c r="Y27" s="5">
+        <f t="shared" ref="Y27" si="20">M28/M27</f>
+        <v>1.6293279022403257E-2</v>
+      </c>
+      <c r="Z27" s="5">
+        <f>AVERAGE(P27:Y27)</f>
+        <v>8.5899409079711418E-3</v>
+      </c>
+      <c r="AA27" s="5">
+        <f>Z27/(0.1*0.1*PI())</f>
+        <v>0.27342631127417816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2568,14 +2681,13 @@
       <c r="M28">
         <v>8</v>
       </c>
-      <c r="N28">
-        <f t="shared" ref="N28:N36" si="11">SUM(D28:M28)</f>
-        <v>40</v>
+      <c r="O28" t="s">
+        <v>37</v>
       </c>
       <c r="P28" s="5"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2615,17 +2727,59 @@
       <c r="M29">
         <v>151</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="11"/>
-        <v>1728</v>
+      <c r="O29" t="s">
+        <v>41</v>
       </c>
       <c r="P29" s="5">
-        <f>N30/N29</f>
-        <v>2.6620370370370371E-2</v>
-      </c>
-      <c r="S29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+        <f>D30/D29</f>
+        <v>1.9900497512437811E-2</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" ref="Q29" si="21">E30/E29</f>
+        <v>2.1390374331550801E-2</v>
+      </c>
+      <c r="R29" s="5">
+        <f t="shared" ref="R29" si="22">F30/F29</f>
+        <v>5.3475935828877002E-3</v>
+      </c>
+      <c r="S29" s="5">
+        <f t="shared" ref="S29" si="23">G30/G29</f>
+        <v>2.7472527472527472E-2</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" ref="T29" si="24">H30/H29</f>
+        <v>1.6304347826086956E-2</v>
+      </c>
+      <c r="U29" s="5">
+        <f t="shared" ref="U29" si="25">I30/I29</f>
+        <v>3.3898305084745763E-2</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" ref="V29" si="26">J30/J29</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="W29" s="5">
+        <f>K30/K29</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="X29" s="5">
+        <f t="shared" ref="X29" si="27">L30/L29</f>
+        <v>2.6143790849673203E-2</v>
+      </c>
+      <c r="Y29" s="5">
+        <f t="shared" ref="Y29" si="28">M30/M29</f>
+        <v>3.3112582781456956E-2</v>
+      </c>
+      <c r="Z29" s="5">
+        <f>AVERAGE(P29:Y29)</f>
+        <v>2.7536489123623848E-2</v>
+      </c>
+      <c r="AA29" s="5">
+        <f>Z29/(0.1*0.1*PI())</f>
+        <v>0.8765136718841896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2665,14 +2819,13 @@
       <c r="M30">
         <v>5</v>
       </c>
-      <c r="N30">
-        <f t="shared" si="11"/>
-        <v>46</v>
+      <c r="O30" t="s">
+        <v>41</v>
       </c>
       <c r="P30" s="5"/>
       <c r="S30" s="3"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2712,16 +2865,59 @@
       <c r="M31">
         <v>168</v>
       </c>
-      <c r="N31">
-        <f>SUM(D31:M31)</f>
-        <v>1517</v>
+      <c r="O31" t="s">
+        <v>59</v>
       </c>
       <c r="P31" s="5">
-        <f>N32/N31</f>
-        <v>2.043506921555702E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+        <f>D32/D31</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" ref="Q31" si="29">E32/E31</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="R31" s="5">
+        <f t="shared" ref="R31" si="30">F32/F31</f>
+        <v>1.282051282051282E-2</v>
+      </c>
+      <c r="S31" s="5">
+        <f t="shared" ref="S31" si="31">G32/G31</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" ref="T31" si="32">H32/H31</f>
+        <v>3.1007751937984496E-2</v>
+      </c>
+      <c r="U31" s="5">
+        <f t="shared" ref="U31" si="33">I32/I31</f>
+        <v>4.6511627906976744E-2</v>
+      </c>
+      <c r="V31" s="5">
+        <f t="shared" ref="V31" si="34">J32/J31</f>
+        <v>1.8292682926829267E-2</v>
+      </c>
+      <c r="W31" s="5">
+        <f>K32/K31</f>
+        <v>2.5477707006369428E-2</v>
+      </c>
+      <c r="X31" s="5">
+        <f t="shared" ref="X31" si="35">L32/L31</f>
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="Y31" s="5">
+        <f t="shared" ref="Y31" si="36">M32/M31</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="5">
+        <f>AVERAGE(P31:Y31)</f>
+        <v>2.1211173516909081E-2</v>
+      </c>
+      <c r="AA31" s="5">
+        <f>Z31/(0.1*0.1*PI())</f>
+        <v>0.67517262279919643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -2761,13 +2957,12 @@
       <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32">
-        <f>SUM(D32:M32)</f>
-        <v>31</v>
+      <c r="O32" t="s">
+        <v>59</v>
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2807,16 +3002,59 @@
       <c r="M33">
         <v>166</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="11"/>
-        <v>1597</v>
+      <c r="O33" t="s">
+        <v>46</v>
       </c>
       <c r="P33" s="5">
-        <f>N34/N33</f>
-        <v>3.8822792736380715E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+        <f>D34/D33</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" ref="Q33" si="37">E34/E33</f>
+        <v>5.2941176470588235E-2</v>
+      </c>
+      <c r="R33" s="5">
+        <f t="shared" ref="R33" si="38">F34/F33</f>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="S33" s="5">
+        <f t="shared" ref="S33" si="39">G34/G33</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" ref="T33" si="40">H34/H33</f>
+        <v>3.6585365853658534E-2</v>
+      </c>
+      <c r="U33" s="5">
+        <f t="shared" ref="U33" si="41">I34/I33</f>
+        <v>2.4844720496894408E-2</v>
+      </c>
+      <c r="V33" s="5">
+        <f t="shared" ref="V33" si="42">J34/J33</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="W33" s="5">
+        <f>K34/K33</f>
+        <v>2.6143790849673203E-2</v>
+      </c>
+      <c r="X33" s="5">
+        <f t="shared" ref="X33" si="43">L34/L33</f>
+        <v>5.0955414012738856E-2</v>
+      </c>
+      <c r="Y33" s="5">
+        <f t="shared" ref="Y33" si="44">M34/M33</f>
+        <v>1.8072289156626505E-2</v>
+      </c>
+      <c r="Z33" s="5">
+        <f>AVERAGE(P33:Y33)</f>
+        <v>3.9287467546621609E-2</v>
+      </c>
+      <c r="AA33" s="5">
+        <f>Z33/(0.1*0.1*PI())</f>
+        <v>1.2505589323214494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -2856,13 +3094,12 @@
       <c r="M34">
         <v>3</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="11"/>
-        <v>62</v>
+      <c r="O34" t="s">
+        <v>46</v>
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2902,16 +3139,59 @@
       <c r="M35">
         <v>74</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="11"/>
-        <v>628</v>
+      <c r="O35" t="s">
+        <v>48</v>
       </c>
       <c r="P35" s="5">
-        <f>N36/N35</f>
-        <v>4.7770700636942678E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+        <f>D36/D35</f>
+        <v>3.3898305084745763E-2</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" ref="Q35" si="45">E36/E35</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
+        <f t="shared" ref="R35" si="46">F36/F35</f>
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="S35" s="5">
+        <f t="shared" ref="S35" si="47">G36/G35</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <f t="shared" ref="T35" si="48">H36/H35</f>
+        <v>1.8181818181818181E-2</v>
+      </c>
+      <c r="U35" s="5">
+        <f t="shared" ref="U35" si="49">I36/I35</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="5">
+        <f t="shared" ref="V35" si="50">J36/J35</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="W35" s="5">
+        <f>K36/K35</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="X35" s="5">
+        <f t="shared" ref="X35" si="51">L36/L35</f>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="Y35" s="5">
+        <f t="shared" ref="Y35" si="52">M36/M35</f>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="Z35" s="5">
+        <f>AVERAGE(P35:Y35)</f>
+        <v>4.2226721963511599E-2</v>
+      </c>
+      <c r="AA35" s="5">
+        <f>Z35/(0.1*0.1*PI())</f>
+        <v>1.344118306211995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -2951,13 +3231,144 @@
       <c r="M36">
         <v>6</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="11"/>
-        <v>30</v>
+      <c r="O36" t="s">
+        <v>48</v>
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f>D25+D27+D29+D31+D33+D35</f>
+        <v>1671</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:M37" si="53">E25+E27+E29+E31+E33+E35</f>
+        <v>1594</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="53"/>
+        <v>1703</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="53"/>
+        <v>1537</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="53"/>
+        <v>1508</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="53"/>
+        <v>1437</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="53"/>
+        <v>1644</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="53"/>
+        <v>1540</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="53"/>
+        <v>1515</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="53"/>
+        <v>1498</v>
+      </c>
+      <c r="P37" s="5">
+        <f>D38/D37</f>
+        <v>1.2567324955116697E-2</v>
+      </c>
+      <c r="Q37" s="5">
+        <f t="shared" ref="Q37:Y37" si="54">E38/E37</f>
+        <v>1.3801756587202008E-2</v>
+      </c>
+      <c r="R37" s="5">
+        <f t="shared" si="54"/>
+        <v>8.2207868467410444E-3</v>
+      </c>
+      <c r="S37" s="5">
+        <f t="shared" si="54"/>
+        <v>1.4964216005204945E-2</v>
+      </c>
+      <c r="T37" s="5">
+        <f t="shared" si="54"/>
+        <v>9.9469496021220155E-3</v>
+      </c>
+      <c r="U37" s="5">
+        <f t="shared" si="54"/>
+        <v>1.2526096033402923E-2</v>
+      </c>
+      <c r="V37" s="5">
+        <f t="shared" si="54"/>
+        <v>1.6423357664233577E-2</v>
+      </c>
+      <c r="W37" s="5">
+        <f t="shared" si="54"/>
+        <v>2.012987012987013E-2</v>
+      </c>
+      <c r="X37" s="5">
+        <f t="shared" si="54"/>
+        <v>1.914191419141914E-2</v>
+      </c>
+      <c r="Y37" s="5">
+        <f t="shared" si="54"/>
+        <v>1.602136181575434E-2</v>
+      </c>
+      <c r="Z37" s="5">
+        <f>AVERAGE(P37:Y37)</f>
+        <v>1.4374363383106683E-2</v>
+      </c>
+      <c r="AA37" s="5">
+        <f>Z37/(0.1*0.1*PI())</f>
+        <v>0.45755019724411361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f>D26+D28+D30+D32+D34+D36</f>
+        <v>21</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:M38" si="55">E26+E28+E30+E32+E34+E36</f>
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="55"/>
+        <v>14</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="55"/>
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="55"/>
+        <v>15</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="55"/>
+        <v>18</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="55"/>
+        <v>27</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="55"/>
+        <v>31</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="55"/>
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="55"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2969,7 +3380,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2981,7 +3392,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2993,7 +3404,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -3005,7 +3416,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -3017,7 +3428,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -3029,7 +3440,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -3041,7 +3452,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -3060,7 +3471,7 @@
         <v>9.5492965855137196E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -3075,7 +3486,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" ref="P48:P53" si="12">O48/(0.1*0.1*PI())</f>
+        <f t="shared" ref="P48:P53" si="56">O48/(0.1*0.1*PI())</f>
         <v>0.28647889756541156</v>
       </c>
     </row>
@@ -3094,7 +3505,7 @@
         <v>2.7E-2</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>0.85943669269623479</v>
       </c>
     </row>
@@ -3113,7 +3524,7 @@
         <v>0.02</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>0.63661977236758127</v>
       </c>
     </row>
@@ -3122,7 +3533,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1.2414085561167836</v>
       </c>
     </row>
@@ -3131,7 +3542,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>1.5278874536821951</v>
       </c>
     </row>
@@ -3149,7 +3560,7 @@
         <v>2E-3</v>
       </c>
       <c r="P53" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="56"/>
         <v>6.3661977236758135E-2</v>
       </c>
       <c r="X53" s="3"/>
